--- a/backend/docs/defect.xlsx
+++ b/backend/docs/defect.xlsx
@@ -135,12 +135,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -148,6 +142,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,16 +455,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="7.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
@@ -472,82 +472,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
@@ -561,38 +561,55 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="3"/>
     </row>
+    <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -600,49 +617,54 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8" t="s">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A7:I7"/>
     <mergeCell ref="A10:I11"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A27:C28"/>
     <mergeCell ref="D27:F28"/>
     <mergeCell ref="G27:H28"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0.26041666666666669" right="0.30208333333333331" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
